--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T13:30:27+00:00</t>
+    <t>2025-01-31T15:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:48:31+00:00</t>
+    <t>2025-01-31T16:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:36:09+00:00</t>
+    <t>2025-01-31T16:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:52:44+00:00</t>
+    <t>2025-02-03T13:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:34:22+00:00</t>
+    <t>2025-02-03T13:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5160" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="632">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:56:30+00:00</t>
+    <t>2025-02-03T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1013,46 +1013,10 @@
     <t>Practitioner.identifier:adeli.assigner</t>
   </si>
   <si>
-    <t>Practitioner.identifier:IdentifiantNatPS</t>
-  </si>
-  <si>
-    <t>IdentifiantNatPS</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:IdentifiantNatPS.id</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:IdentifiantNatPS.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:IdentifiantNatPS.use</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:IdentifiantNatPS.type</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:IdentifiantNatPS.system</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:IdentifiantNatPS.value</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:IdentifiantNatPS.period</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:IdentifiantNatPS.assigner</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+    <t>Practitioner.identifier:identifier[idNatPs]</t>
+  </si>
+  <si>
+    <t>identifier[idNatPs]</t>
   </si>
   <si>
     <t>Practitioner.identifier:IdentifiantInterne</t>
@@ -1090,7 +1054,19 @@
     <t>Practitioner.identifier:IdentifiantInterne.period</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
     <t>Practitioner.identifier:IdentifiantInterne.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Practitioner.active</t>
@@ -2308,7 +2284,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN142"/>
+  <dimension ref="A1:AN134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5457,7 +5433,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -7965,9 +7941,11 @@
         <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7985,19 +7963,21 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -8045,50 +8025,50 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -8100,17 +8080,15 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -8147,37 +8125,37 @@
         <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -8188,46 +8166,44 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -8251,49 +8227,49 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>201</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -8304,10 +8280,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8324,25 +8300,25 @@
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>296</v>
+        <v>227</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -8352,7 +8328,7 @@
         <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>76</v>
@@ -8367,13 +8343,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -8391,7 +8367,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8406,7 +8382,7 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>235</v>
@@ -8420,10 +8396,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8446,19 +8422,19 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -8468,10 +8444,10 @@
         <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>254</v>
+        <v>325</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>76</v>
@@ -8483,13 +8459,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -8507,7 +8483,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8522,13 +8498,13 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>76</v>
@@ -8536,10 +8512,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8562,18 +8538,20 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8582,10 +8560,10 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>76</v>
@@ -8621,7 +8599,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8636,13 +8614,13 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
@@ -8650,10 +8628,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8676,16 +8654,16 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>326</v>
+        <v>264</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8699,7 +8677,7 @@
         <v>76</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>76</v>
@@ -8735,7 +8713,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8747,16 +8725,16 @@
         <v>201</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>327</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8767,7 +8745,7 @@
         <v>328</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8790,16 +8768,16 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8849,7 +8827,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8861,16 +8839,16 @@
         <v>201</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>76</v>
@@ -8878,14 +8856,12 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8906,18 +8882,18 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8965,39 +8941,39 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>332</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9005,7 +8981,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
@@ -9017,23 +8993,29 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>101</v>
+        <v>334</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>102</v>
+        <v>335</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="R59" t="s" s="2">
         <v>76</v>
       </c>
@@ -9077,7 +9059,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>104</v>
+        <v>333</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9089,31 +9071,31 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>105</v>
+        <v>340</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>224</v>
+        <v>342</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9132,18 +9114,20 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>108</v>
+        <v>343</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>109</v>
+        <v>344</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>110</v>
+        <v>345</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -9179,19 +9163,19 @@
         <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>115</v>
+        <v>342</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9203,16 +9187,16 @@
         <v>201</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>191</v>
+        <v>349</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>76</v>
@@ -9220,10 +9204,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>226</v>
+        <v>351</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9240,26 +9224,22 @@
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
       </c>
@@ -9283,13 +9263,13 @@
         <v>76</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>76</v>
@@ -9307,7 +9287,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9316,16 +9296,16 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -9336,21 +9316,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>237</v>
+        <v>352</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -9359,23 +9339,21 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>296</v>
+        <v>109</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
       </c>
@@ -9384,7 +9362,7 @@
         <v>76</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>76</v>
@@ -9399,49 +9377,49 @@
         <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -9452,12 +9430,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>76</v>
       </c>
@@ -9475,23 +9455,19 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>129</v>
+        <v>355</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>250</v>
+        <v>356</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
       </c>
@@ -9500,10 +9476,10 @@
         <v>76</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>76</v>
@@ -9539,28 +9515,28 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>76</v>
@@ -9568,10 +9544,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>261</v>
+        <v>358</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9588,24 +9564,26 @@
         <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>263</v>
+        <v>360</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9617,7 +9595,7 @@
         <v>76</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>76</v>
@@ -9629,13 +9607,11 @@
         <v>76</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>76</v>
@@ -9653,7 +9629,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>266</v>
+        <v>364</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9662,19 +9638,19 @@
         <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>267</v>
+        <v>365</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>268</v>
+        <v>366</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>269</v>
+        <v>367</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>76</v>
@@ -9682,10 +9658,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9708,18 +9684,20 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>273</v>
+        <v>369</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>274</v>
+        <v>370</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9767,7 +9745,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>275</v>
+        <v>373</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9776,19 +9754,19 @@
         <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>327</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>276</v>
+        <v>374</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>277</v>
+        <v>375</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>76</v>
@@ -9796,18 +9774,18 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>280</v>
+        <v>376</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>87</v>
@@ -9822,16 +9800,16 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>281</v>
+        <v>101</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>282</v>
+        <v>378</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>283</v>
+        <v>379</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>284</v>
+        <v>380</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9881,7 +9859,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>285</v>
+        <v>381</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9890,19 +9868,19 @@
         <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>329</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>286</v>
+        <v>382</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>287</v>
+        <v>383</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>288</v>
+        <v>384</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>76</v>
@@ -9910,14 +9888,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9936,26 +9914,22 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>342</v>
+        <v>101</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q67" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9999,13 +9973,13 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
@@ -10014,24 +9988,24 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>76</v>
+        <v>391</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>76</v>
+        <v>393</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>349</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10042,7 +10016,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -10051,23 +10025,19 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>76</v>
       </c>
@@ -10091,13 +10061,13 @@
         <v>76</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>76</v>
+        <v>397</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>76</v>
@@ -10115,7 +10085,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10124,19 +10094,19 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>76</v>
@@ -10144,10 +10114,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10158,7 +10128,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -10167,16 +10137,16 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>101</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>102</v>
+        <v>404</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>103</v>
+        <v>405</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10203,13 +10173,13 @@
         <v>76</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>76</v>
+        <v>407</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>76</v>
@@ -10227,25 +10197,25 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>104</v>
+        <v>408</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>105</v>
+        <v>410</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -10256,21 +10226,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -10279,21 +10249,21 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>109</v>
+        <v>412</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
       </c>
@@ -10329,40 +10299,40 @@
         <v>76</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>115</v>
+        <v>415</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>76</v>
+        <v>416</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>105</v>
+        <v>417</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>76</v>
@@ -10370,14 +10340,12 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>76</v>
       </c>
@@ -10386,7 +10354,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -10398,16 +10366,20 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
       </c>
@@ -10455,7 +10427,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>115</v>
+        <v>418</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10464,19 +10436,19 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>116</v>
+        <v>424</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>76</v>
+        <v>425</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>76</v>
+        <v>426</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>76</v>
+        <v>427</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>76</v>
@@ -10484,10 +10456,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10504,26 +10476,22 @@
         <v>76</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>367</v>
+        <v>102</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>76</v>
       </c>
@@ -10547,11 +10515,13 @@
         <v>76</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y72" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z72" t="s" s="2">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>76</v>
@@ -10569,7 +10539,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>372</v>
+        <v>104</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10581,16 +10551,16 @@
         <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>374</v>
+        <v>105</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>76</v>
@@ -10598,21 +10568,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -10621,23 +10591,21 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>377</v>
+        <v>109</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>378</v>
+        <v>110</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>76</v>
       </c>
@@ -10673,37 +10641,37 @@
         <v>76</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>381</v>
+        <v>115</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>383</v>
+        <v>105</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10714,18 +10682,20 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="D74" t="s" s="2">
-        <v>385</v>
+        <v>76</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>87</v>
@@ -10737,20 +10707,18 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>101</v>
+        <v>432</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -10799,28 +10767,28 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>389</v>
+        <v>115</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>76</v>
@@ -10828,14 +10796,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>394</v>
+        <v>76</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10854,17 +10822,15 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -10874,7 +10840,7 @@
         <v>76</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>76</v>
@@ -10889,13 +10855,13 @@
         <v>76</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>76</v>
+        <v>439</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>76</v>
+        <v>440</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>76</v>
@@ -10913,28 +10879,28 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>76</v>
@@ -10942,10 +10908,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10953,7 +10919,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>87</v>
@@ -10971,13 +10937,17 @@
         <v>101</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>76</v>
       </c>
@@ -11001,13 +10971,13 @@
         <v>76</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>406</v>
+        <v>76</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>76</v>
@@ -11025,13 +10995,13 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>76</v>
@@ -11040,13 +11010,13 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>410</v>
+        <v>269</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>76</v>
@@ -11054,10 +11024,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11068,28 +11038,32 @@
         <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>76</v>
       </c>
@@ -11113,13 +11087,13 @@
         <v>76</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>76</v>
@@ -11137,13 +11111,13 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>76</v>
@@ -11152,13 +11126,13 @@
         <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>76</v>
@@ -11166,10 +11140,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11192,18 +11166,18 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>272</v>
+        <v>465</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>76</v>
       </c>
@@ -11251,7 +11225,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11266,13 +11240,13 @@
         <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>424</v>
+        <v>105</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>425</v>
+        <v>105</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>76</v>
@@ -11280,10 +11254,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11294,7 +11268,7 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -11303,23 +11277,19 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>427</v>
+        <v>272</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>76</v>
       </c>
@@ -11367,28 +11337,28 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>432</v>
+        <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>433</v>
+        <v>191</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>435</v>
+        <v>278</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>76</v>
@@ -11396,10 +11366,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11410,7 +11380,7 @@
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -11422,16 +11392,20 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>101</v>
+        <v>475</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>102</v>
+        <v>476</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>76</v>
       </c>
@@ -11479,28 +11453,28 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>104</v>
+        <v>474</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>76</v>
+        <v>480</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>105</v>
+        <v>481</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>76</v>
@@ -11508,21 +11482,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>76</v>
@@ -11531,21 +11505,21 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>109</v>
+        <v>484</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>76</v>
       </c>
@@ -11569,52 +11543,52 @@
         <v>76</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>76</v>
+        <v>487</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>76</v>
+        <v>488</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>115</v>
+        <v>483</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>76</v>
+        <v>489</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>105</v>
+        <v>490</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>76</v>
+        <v>491</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>76</v>
@@ -11622,14 +11596,12 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
         <v>76</v>
       </c>
@@ -11647,19 +11619,21 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
       </c>
@@ -11707,28 +11681,28 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>115</v>
+        <v>492</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>76</v>
+        <v>497</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>76</v>
+        <v>498</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>76</v>
+        <v>499</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>76</v>
@@ -11736,10 +11710,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11747,10 +11721,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>76</v>
@@ -11759,19 +11733,21 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>168</v>
+        <v>501</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>76</v>
       </c>
@@ -11780,7 +11756,7 @@
         <v>76</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>446</v>
+        <v>76</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>76</v>
@@ -11795,13 +11771,13 @@
         <v>76</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>447</v>
+        <v>76</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>448</v>
+        <v>76</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>76</v>
@@ -11819,28 +11795,28 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>76</v>
@@ -11848,10 +11824,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11859,10 +11835,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>76</v>
@@ -11871,23 +11847,19 @@
         <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>101</v>
+        <v>508</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>76</v>
       </c>
@@ -11923,25 +11895,23 @@
         <v>76</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="AC84" s="2"/>
       <c r="AD84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>76</v>
@@ -11950,13 +11920,13 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>269</v>
+        <v>514</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>76</v>
@@ -11964,10 +11934,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11984,26 +11954,22 @@
         <v>76</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>463</v>
+        <v>102</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>76</v>
       </c>
@@ -12027,13 +11993,13 @@
         <v>76</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>467</v>
+        <v>76</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>468</v>
+        <v>76</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>76</v>
@@ -12051,7 +12017,7 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>469</v>
+        <v>104</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12063,16 +12029,16 @@
         <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>470</v>
+        <v>76</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>374</v>
+        <v>105</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>471</v>
+        <v>76</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>76</v>
@@ -12080,21 +12046,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>76</v>
@@ -12103,19 +12069,19 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>473</v>
+        <v>108</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>474</v>
+        <v>109</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>475</v>
+        <v>110</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>476</v>
+        <v>111</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12165,22 +12131,22 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>477</v>
+        <v>115</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>105</v>
@@ -12194,42 +12160,46 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>76</v>
+        <v>518</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>479</v>
+        <v>519</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>76</v>
       </c>
@@ -12277,28 +12247,28 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AL87" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="AM87" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>76</v>
@@ -12306,10 +12276,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12332,19 +12302,17 @@
         <v>76</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>483</v>
+        <v>208</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>487</v>
+        <v>525</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>76</v>
@@ -12393,7 +12361,7 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12402,19 +12370,19 @@
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>488</v>
+        <v>76</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>489</v>
+        <v>526</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>490</v>
+        <v>76</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>76</v>
@@ -12422,10 +12390,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12433,7 +12401,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>87</v>
@@ -12445,21 +12413,19 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>494</v>
-      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>76</v>
       </c>
@@ -12483,13 +12449,13 @@
         <v>76</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>76</v>
@@ -12507,10 +12473,10 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>87</v>
@@ -12522,13 +12488,13 @@
         <v>99</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>497</v>
+        <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>76</v>
@@ -12536,10 +12502,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12559,20 +12525,20 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>501</v>
+        <v>272</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>503</v>
+        <v>535</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>504</v>
+        <v>536</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>76</v>
@@ -12621,7 +12587,7 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12636,13 +12602,13 @@
         <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>505</v>
+        <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>76</v>
@@ -12650,10 +12616,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12664,7 +12630,7 @@
         <v>77</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>76</v>
@@ -12676,18 +12642,16 @@
         <v>76</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>509</v>
+        <v>281</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>512</v>
-      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>76</v>
       </c>
@@ -12735,13 +12699,13 @@
         <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>76</v>
@@ -12753,10 +12717,10 @@
         <v>76</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>514</v>
+        <v>76</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>76</v>
@@ -12764,12 +12728,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="D92" t="s" s="2">
         <v>76</v>
       </c>
@@ -12790,13 +12756,13 @@
         <v>76</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12835,17 +12801,19 @@
         <v>76</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AC92" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12860,13 +12828,13 @@
         <v>99</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>76</v>
@@ -12874,10 +12842,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12986,10 +12954,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13100,14 +13068,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13129,10 +13097,10 @@
         <v>108</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>111</v>
@@ -13187,7 +13155,7 @@
         <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13216,10 +13184,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13245,14 +13213,14 @@
         <v>208</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>76</v>
@@ -13301,7 +13269,7 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13319,7 +13287,7 @@
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>76</v>
@@ -13330,10 +13298,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13359,10 +13327,10 @@
         <v>238</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13392,10 +13360,10 @@
         <v>158</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>76</v>
@@ -13413,7 +13381,7 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>87</v>
@@ -13431,10 +13399,10 @@
         <v>76</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>76</v>
@@ -13442,10 +13410,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13468,18 +13436,16 @@
         <v>76</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>542</v>
+        <v>102</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>543</v>
+        <v>103</v>
       </c>
       <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>544</v>
-      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>76</v>
       </c>
@@ -13527,7 +13493,7 @@
         <v>76</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>541</v>
+        <v>104</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -13539,16 +13505,16 @@
         <v>76</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>545</v>
+        <v>105</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>546</v>
+        <v>76</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>76</v>
@@ -13556,21 +13522,21 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>76</v>
@@ -13582,15 +13548,17 @@
         <v>76</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>281</v>
+        <v>108</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>548</v>
+        <v>109</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>76</v>
@@ -13627,37 +13595,37 @@
         <v>76</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>547</v>
+        <v>115</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>550</v>
+        <v>105</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>76</v>
@@ -13668,14 +13636,12 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
         <v>76</v>
       </c>
@@ -13693,19 +13659,23 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>516</v>
+        <v>146</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>76</v>
       </c>
@@ -13741,19 +13711,17 @@
         <v>76</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AC100" s="2"/>
       <c r="AD100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>76</v>
+        <v>561</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>515</v>
+        <v>562</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -13768,13 +13736,13 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>521</v>
+        <v>564</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>522</v>
+        <v>76</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>76</v>
@@ -13782,12 +13750,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C101" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="D101" t="s" s="2">
         <v>76</v>
       </c>
@@ -13805,19 +13775,23 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>102</v>
+        <v>557</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>76</v>
       </c>
@@ -13841,13 +13815,11 @@
         <v>76</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Y101" s="2"/>
       <c r="Z101" t="s" s="2">
-        <v>76</v>
+        <v>567</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>76</v>
@@ -13865,25 +13837,25 @@
         <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>104</v>
+        <v>562</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>76</v>
+        <v>563</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>105</v>
+        <v>564</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>76</v>
@@ -13894,21 +13866,23 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C102" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="D102" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>76</v>
@@ -13917,21 +13891,23 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>109</v>
+        <v>557</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>110</v>
+        <v>558</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>76</v>
       </c>
@@ -13955,13 +13931,11 @@
         <v>76</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Y102" s="2"/>
       <c r="Z102" t="s" s="2">
-        <v>76</v>
+        <v>569</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>76</v>
@@ -13979,7 +13953,7 @@
         <v>76</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>115</v>
+        <v>562</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -13991,13 +13965,13 @@
         <v>76</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>76</v>
+        <v>563</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>105</v>
+        <v>564</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>76</v>
@@ -14008,45 +13982,45 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>525</v>
+        <v>571</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>526</v>
+        <v>76</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>111</v>
+        <v>574</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>205</v>
+        <v>575</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>76</v>
@@ -14095,25 +14069,25 @@
         <v>76</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>529</v>
+        <v>576</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>76</v>
+        <v>577</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>191</v>
+        <v>578</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>76</v>
@@ -14124,10 +14098,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14138,7 +14112,7 @@
         <v>77</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>76</v>
@@ -14150,17 +14124,17 @@
         <v>76</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>76</v>
@@ -14209,13 +14183,13 @@
         <v>76</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>76</v>
@@ -14227,10 +14201,10 @@
         <v>76</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>76</v>
+        <v>538</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>76</v>
@@ -14238,10 +14212,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14249,7 +14223,7 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>87</v>
@@ -14264,13 +14238,13 @@
         <v>76</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14297,34 +14271,34 @@
         <v>76</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>538</v>
+        <v>76</v>
       </c>
       <c r="Z105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF105" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AA105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AG105" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>87</v>
@@ -14339,10 +14313,10 @@
         <v>76</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>540</v>
+        <v>76</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>76</v>
@@ -14350,12 +14324,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>582</v>
+      </c>
       <c r="D106" t="s" s="2">
         <v>76</v>
       </c>
@@ -14376,13 +14352,13 @@
         <v>76</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>101</v>
+        <v>508</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>102</v>
+        <v>583</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14433,28 +14409,28 @@
         <v>76</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>104</v>
+        <v>507</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>76</v>
+        <v>512</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>105</v>
+        <v>513</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>76</v>
+        <v>514</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>76</v>
@@ -14462,21 +14438,21 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>76</v>
@@ -14488,17 +14464,15 @@
         <v>76</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>76</v>
@@ -14535,31 +14509,31 @@
         <v>76</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC107" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>76</v>
@@ -14576,14 +14550,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>564</v>
+        <v>516</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14599,23 +14573,21 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>565</v>
+        <v>109</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>566</v>
+        <v>110</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>76</v>
       </c>
@@ -14651,17 +14623,19 @@
         <v>76</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC108" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>569</v>
+        <v>76</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>570</v>
+        <v>115</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -14673,13 +14647,13 @@
         <v>76</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>571</v>
+        <v>76</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>572</v>
+        <v>105</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14690,47 +14664,45 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>76</v>
+        <v>518</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>567</v>
+        <v>111</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>568</v>
+        <v>205</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>76</v>
@@ -14755,11 +14727,13 @@
         <v>76</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y109" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z109" t="s" s="2">
-        <v>575</v>
+        <v>76</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>76</v>
@@ -14777,7 +14751,7 @@
         <v>76</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>570</v>
+        <v>521</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -14789,13 +14763,13 @@
         <v>76</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>571</v>
+        <v>76</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>572</v>
+        <v>191</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>76</v>
@@ -14806,14 +14780,12 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
         <v>76</v>
       </c>
@@ -14822,7 +14794,7 @@
         <v>77</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>76</v>
@@ -14831,22 +14803,20 @@
         <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>565</v>
+        <v>523</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>568</v>
+        <v>525</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>76</v>
@@ -14871,11 +14841,13 @@
         <v>76</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y110" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z110" t="s" s="2">
-        <v>577</v>
+        <v>76</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>76</v>
@@ -14893,7 +14865,7 @@
         <v>76</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>570</v>
+        <v>522</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -14908,10 +14880,10 @@
         <v>99</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>571</v>
+        <v>76</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>572</v>
+        <v>526</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>76</v>
@@ -14922,10 +14894,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>579</v>
+        <v>527</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14933,7 +14905,7 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>87</v>
@@ -14945,23 +14917,19 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>580</v>
+        <v>528</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>76</v>
       </c>
@@ -14985,13 +14953,13 @@
         <v>76</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>76</v>
+        <v>530</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>76</v>
+        <v>531</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>76</v>
@@ -15009,10 +14977,10 @@
         <v>76</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>584</v>
+        <v>527</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>87</v>
@@ -15024,13 +14992,13 @@
         <v>99</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>585</v>
+        <v>76</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>586</v>
+        <v>513</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>76</v>
+        <v>532</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>76</v>
@@ -15038,10 +15006,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15064,18 +15032,16 @@
         <v>76</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>542</v>
+        <v>102</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>543</v>
+        <v>103</v>
       </c>
       <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>544</v>
-      </c>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>76</v>
       </c>
@@ -15123,7 +15089,7 @@
         <v>76</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>541</v>
+        <v>104</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
@@ -15135,16 +15101,16 @@
         <v>76</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>545</v>
+        <v>105</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>546</v>
+        <v>76</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>76</v>
@@ -15152,21 +15118,21 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>76</v>
@@ -15178,15 +15144,17 @@
         <v>76</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>281</v>
+        <v>108</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>548</v>
+        <v>109</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>76</v>
@@ -15223,37 +15191,37 @@
         <v>76</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC113" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>547</v>
+        <v>115</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>550</v>
+        <v>105</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
@@ -15264,14 +15232,12 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>590</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
         <v>76</v>
       </c>
@@ -15280,7 +15246,7 @@
         <v>77</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>76</v>
@@ -15289,19 +15255,23 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>516</v>
+        <v>146</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="P114" t="s" s="2">
         <v>76</v>
       </c>
@@ -15337,19 +15307,17 @@
         <v>76</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AC114" s="2"/>
       <c r="AD114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>76</v>
+        <v>561</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>515</v>
+        <v>562</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
@@ -15364,13 +15332,13 @@
         <v>99</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>521</v>
+        <v>564</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>522</v>
+        <v>76</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>76</v>
@@ -15381,9 +15349,11 @@
         <v>592</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C115" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>593</v>
+      </c>
       <c r="D115" t="s" s="2">
         <v>76</v>
       </c>
@@ -15401,19 +15371,23 @@
         <v>76</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>102</v>
+        <v>594</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>76</v>
       </c>
@@ -15437,13 +15411,11 @@
         <v>76</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Y115" s="2"/>
       <c r="Z115" t="s" s="2">
-        <v>76</v>
+        <v>595</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>76</v>
@@ -15461,25 +15433,25 @@
         <v>76</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>104</v>
+        <v>562</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>76</v>
+        <v>563</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>105</v>
+        <v>564</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
@@ -15490,21 +15462,23 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C116" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="D116" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>76</v>
@@ -15513,21 +15487,23 @@
         <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>109</v>
+        <v>598</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>110</v>
+        <v>558</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O116" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="P116" t="s" s="2">
         <v>76</v>
       </c>
@@ -15551,13 +15527,11 @@
         <v>76</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Y116" s="2"/>
       <c r="Z116" t="s" s="2">
-        <v>76</v>
+        <v>599</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>76</v>
@@ -15575,7 +15549,7 @@
         <v>76</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>115</v>
+        <v>562</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>77</v>
@@ -15587,13 +15561,13 @@
         <v>76</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>76</v>
+        <v>563</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>105</v>
+        <v>564</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>76</v>
@@ -15604,45 +15578,45 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>525</v>
+        <v>571</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>526</v>
+        <v>76</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>111</v>
+        <v>574</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>205</v>
+        <v>575</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>76</v>
@@ -15691,25 +15665,25 @@
         <v>76</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>529</v>
+        <v>576</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>76</v>
+        <v>577</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>191</v>
+        <v>578</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>76</v>
@@ -15720,10 +15694,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15734,7 +15708,7 @@
         <v>77</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>76</v>
@@ -15746,17 +15720,17 @@
         <v>76</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>76</v>
@@ -15805,13 +15779,13 @@
         <v>76</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>76</v>
@@ -15823,10 +15797,10 @@
         <v>76</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>76</v>
+        <v>538</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>76</v>
@@ -15834,10 +15808,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15845,7 +15819,7 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>87</v>
@@ -15860,13 +15834,13 @@
         <v>76</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15893,34 +15867,34 @@
         <v>76</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>538</v>
+        <v>76</v>
       </c>
       <c r="Z119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF119" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AA119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AG119" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>87</v>
@@ -15935,10 +15909,10 @@
         <v>76</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>540</v>
+        <v>76</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>76</v>
@@ -15946,12 +15920,14 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C120" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>604</v>
+      </c>
       <c r="D120" t="s" s="2">
         <v>76</v>
       </c>
@@ -15960,7 +15936,7 @@
         <v>77</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>76</v>
@@ -15972,13 +15948,13 @@
         <v>76</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>101</v>
+        <v>508</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>102</v>
+        <v>605</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16029,28 +16005,28 @@
         <v>76</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>104</v>
+        <v>507</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>76</v>
+        <v>512</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>105</v>
+        <v>513</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>76</v>
+        <v>514</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>76</v>
@@ -16058,21 +16034,21 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>76</v>
@@ -16084,17 +16060,15 @@
         <v>76</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>76</v>
@@ -16131,31 +16105,31 @@
         <v>76</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC121" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD121" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>76</v>
@@ -16172,14 +16146,14 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>564</v>
+        <v>516</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -16195,23 +16169,21 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>565</v>
+        <v>109</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>566</v>
+        <v>110</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>76</v>
       </c>
@@ -16247,17 +16219,19 @@
         <v>76</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC122" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD122" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>569</v>
+        <v>76</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>570</v>
+        <v>115</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>77</v>
@@ -16269,13 +16243,13 @@
         <v>76</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>571</v>
+        <v>76</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>572</v>
+        <v>105</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
@@ -16286,47 +16260,45 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C123" t="s" s="2">
-        <v>601</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>76</v>
+        <v>518</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J123" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>602</v>
+        <v>519</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>567</v>
+        <v>111</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>568</v>
+        <v>205</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>76</v>
@@ -16351,11 +16323,13 @@
         <v>76</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y123" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z123" t="s" s="2">
-        <v>603</v>
+        <v>76</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>76</v>
@@ -16373,7 +16347,7 @@
         <v>76</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>570</v>
+        <v>521</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -16385,13 +16359,13 @@
         <v>76</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>571</v>
+        <v>76</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>572</v>
+        <v>191</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
@@ -16402,14 +16376,12 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C124" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16418,7 +16390,7 @@
         <v>77</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>76</v>
@@ -16427,22 +16399,20 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>606</v>
+        <v>523</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>568</v>
+        <v>525</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>76</v>
@@ -16467,11 +16437,13 @@
         <v>76</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y124" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z124" t="s" s="2">
-        <v>607</v>
+        <v>76</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>76</v>
@@ -16489,7 +16461,7 @@
         <v>76</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>570</v>
+        <v>522</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
@@ -16504,10 +16476,10 @@
         <v>99</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>571</v>
+        <v>76</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>572</v>
+        <v>526</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16518,10 +16490,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>579</v>
+        <v>527</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16529,7 +16501,7 @@
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>87</v>
@@ -16541,23 +16513,19 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>580</v>
+        <v>528</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>76</v>
       </c>
@@ -16581,13 +16549,13 @@
         <v>76</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>76</v>
+        <v>530</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>76</v>
+        <v>531</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>76</v>
@@ -16605,10 +16573,10 @@
         <v>76</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>584</v>
+        <v>527</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>87</v>
@@ -16620,13 +16588,13 @@
         <v>99</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>585</v>
+        <v>76</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>586</v>
+        <v>513</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>76</v>
+        <v>532</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>76</v>
@@ -16634,10 +16602,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16660,18 +16628,16 @@
         <v>76</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>542</v>
+        <v>102</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>543</v>
+        <v>103</v>
       </c>
       <c r="N126" s="2"/>
-      <c r="O126" t="s" s="2">
-        <v>544</v>
-      </c>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16719,7 +16685,7 @@
         <v>76</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>541</v>
+        <v>104</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>77</v>
@@ -16731,16 +16697,16 @@
         <v>76</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>545</v>
+        <v>105</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>546</v>
+        <v>76</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>76</v>
@@ -16748,21 +16714,21 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>76</v>
@@ -16774,15 +16740,17 @@
         <v>76</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>281</v>
+        <v>108</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>548</v>
+        <v>109</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>76</v>
@@ -16819,37 +16787,37 @@
         <v>76</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC127" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>547</v>
+        <v>115</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>550</v>
+        <v>105</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>76</v>
@@ -16860,14 +16828,12 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C128" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
         <v>76</v>
       </c>
@@ -16885,19 +16851,23 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>516</v>
+        <v>146</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>613</v>
+        <v>557</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>76</v>
       </c>
@@ -16933,19 +16903,17 @@
         <v>76</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AC128" s="2"/>
       <c r="AD128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>76</v>
+        <v>561</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>515</v>
+        <v>562</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -16960,13 +16928,13 @@
         <v>99</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>521</v>
+        <v>564</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>522</v>
+        <v>76</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>76</v>
@@ -16977,9 +16945,11 @@
         <v>614</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C129" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="D129" t="s" s="2">
         <v>76</v>
       </c>
@@ -16997,19 +16967,23 @@
         <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>102</v>
+        <v>616</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="P129" t="s" s="2">
         <v>76</v>
       </c>
@@ -17033,13 +17007,11 @@
         <v>76</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>76</v>
+        <v>617</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>76</v>
@@ -17057,25 +17029,25 @@
         <v>76</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>104</v>
+        <v>562</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>76</v>
+        <v>563</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>105</v>
+        <v>564</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>76</v>
@@ -17086,21 +17058,23 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C130" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>604</v>
+      </c>
       <c r="D130" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>76</v>
@@ -17109,21 +17083,23 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>109</v>
+        <v>619</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>110</v>
+        <v>558</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O130" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="P130" t="s" s="2">
         <v>76</v>
       </c>
@@ -17147,13 +17123,11 @@
         <v>76</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Y130" s="2"/>
       <c r="Z130" t="s" s="2">
-        <v>76</v>
+        <v>620</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>76</v>
@@ -17171,7 +17145,7 @@
         <v>76</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>115</v>
+        <v>562</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>77</v>
@@ -17183,13 +17157,13 @@
         <v>76</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>76</v>
+        <v>563</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>105</v>
+        <v>564</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -17200,45 +17174,45 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>525</v>
+        <v>571</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>526</v>
+        <v>76</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>111</v>
+        <v>574</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>205</v>
+        <v>575</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>76</v>
@@ -17287,25 +17261,25 @@
         <v>76</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>529</v>
+        <v>576</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>76</v>
+        <v>577</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>191</v>
+        <v>578</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17316,10 +17290,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17330,7 +17304,7 @@
         <v>77</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>76</v>
@@ -17342,17 +17316,17 @@
         <v>76</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>76</v>
@@ -17401,13 +17375,13 @@
         <v>76</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>76</v>
@@ -17419,10 +17393,10 @@
         <v>76</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>76</v>
+        <v>538</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>76</v>
@@ -17430,10 +17404,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17441,7 +17415,7 @@
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>87</v>
@@ -17456,13 +17430,13 @@
         <v>76</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -17489,34 +17463,34 @@
         <v>76</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>538</v>
+        <v>76</v>
       </c>
       <c r="Z133" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF133" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AA133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AG133" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>87</v>
@@ -17531,10 +17505,10 @@
         <v>76</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>540</v>
+        <v>76</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>76</v>
@@ -17542,10 +17516,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17556,7 +17530,7 @@
         <v>77</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>76</v>
@@ -17568,16 +17542,20 @@
         <v>76</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>102</v>
+        <v>625</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>628</v>
+      </c>
       <c r="P134" t="s" s="2">
         <v>76</v>
       </c>
@@ -17601,13 +17579,13 @@
         <v>76</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>76</v>
@@ -17625,948 +17603,30 @@
         <v>76</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>104</v>
+        <v>624</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>76</v>
+        <v>629</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>105</v>
+        <v>630</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>76</v>
+        <v>631</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O135" s="2"/>
-      <c r="P135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q135" s="2"/>
-      <c r="R135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="P136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC136" s="2"/>
-      <c r="AD136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C137" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="D137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="P137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q137" s="2"/>
-      <c r="R137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y137" s="2"/>
-      <c r="Z137" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C138" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="D138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="P138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q138" s="2"/>
-      <c r="R138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y138" s="2"/>
-      <c r="Z138" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="P139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q139" s="2"/>
-      <c r="R139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N140" s="2"/>
-      <c r="O140" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="P140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q140" s="2"/>
-      <c r="R140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-      <c r="P141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q141" s="2"/>
-      <c r="R141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E142" s="2"/>
-      <c r="F142" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="P142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q142" s="2"/>
-      <c r="R142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AN142" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:39:55+00:00</t>
+    <t>2025-02-03T16:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:55:26+00:00</t>
+    <t>2025-02-04T08:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4833" uniqueCount="630">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:34:23+00:00</t>
+    <t>2025-02-04T08:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1011,12 +1011,6 @@
   </si>
   <si>
     <t>Practitioner.identifier:adeli.assigner</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:identifier[idNatPs]</t>
-  </si>
-  <si>
-    <t>identifier[idNatPs]</t>
   </si>
   <si>
     <t>Practitioner.identifier:IdentifiantInterne</t>
@@ -2284,7 +2278,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN134"/>
+  <dimension ref="A1:AN133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4629,7 +4623,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -5317,7 +5311,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
@@ -5433,7 +5427,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -7941,11 +7935,9 @@
         <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7963,21 +7955,19 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -8025,50 +8015,50 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -8080,15 +8070,17 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -8125,37 +8117,37 @@
         <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -8166,44 +8158,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>109</v>
+        <v>227</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -8227,49 +8221,49 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>201</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -8280,10 +8274,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8300,25 +8294,25 @@
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -8328,7 +8322,7 @@
         <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>76</v>
@@ -8343,13 +8337,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -8367,7 +8361,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8382,7 +8376,7 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>235</v>
@@ -8399,7 +8393,7 @@
         <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8422,19 +8416,19 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>238</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -8444,10 +8438,10 @@
         <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>325</v>
+        <v>133</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>76</v>
@@ -8459,13 +8453,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -8483,7 +8477,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8498,13 +8492,13 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>76</v>
@@ -8512,10 +8506,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8538,20 +8532,18 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8560,10 +8552,10 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>76</v>
@@ -8599,7 +8591,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8614,13 +8606,13 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
@@ -8628,10 +8620,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8654,16 +8646,16 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8677,7 +8669,7 @@
         <v>76</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>76</v>
@@ -8713,7 +8705,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8725,16 +8717,16 @@
         <v>201</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>328</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8742,10 +8734,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8768,16 +8760,16 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8827,7 +8819,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8842,13 +8834,13 @@
         <v>330</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>76</v>
@@ -8859,7 +8851,7 @@
         <v>331</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8867,7 +8859,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>87</v>
@@ -8882,22 +8874,26 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="R58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8941,7 +8937,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8950,30 +8946,30 @@
         <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>332</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8981,10 +8977,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8993,29 +8989,27 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q59" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
         <v>76</v>
       </c>
@@ -9059,39 +9053,39 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9102,7 +9096,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -9114,20 +9108,16 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>343</v>
+        <v>101</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>344</v>
+        <v>102</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -9175,28 +9165,28 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>342</v>
+        <v>104</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>349</v>
+        <v>105</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>76</v>
@@ -9204,21 +9194,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -9230,15 +9220,17 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -9275,31 +9267,31 @@
         <v>76</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>76</v>
@@ -9316,21 +9308,23 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="B62" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -9342,17 +9336,15 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>108</v>
+        <v>353</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>109</v>
+        <v>354</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -9389,16 +9381,16 @@
         <v>76</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>115</v>
@@ -9419,7 +9411,7 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -9430,14 +9422,12 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>76</v>
       </c>
@@ -9452,22 +9442,26 @@
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>355</v>
+        <v>168</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>76</v>
       </c>
@@ -9491,13 +9485,11 @@
         <v>76</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>76</v>
@@ -9515,28 +9507,28 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>76</v>
@@ -9544,10 +9536,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9564,25 +9556,25 @@
         <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9607,11 +9599,13 @@
         <v>76</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y64" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z64" t="s" s="2">
-        <v>363</v>
+        <v>76</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>76</v>
@@ -9629,7 +9623,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9644,13 +9638,13 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>76</v>
@@ -9658,18 +9652,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>87</v>
@@ -9687,17 +9681,15 @@
         <v>101</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9745,7 +9737,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9760,13 +9752,13 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>76</v>
@@ -9774,14 +9766,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9803,13 +9795,13 @@
         <v>101</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9859,13 +9851,13 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
@@ -9874,13 +9866,13 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>76</v>
@@ -9888,18 +9880,18 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>87</v>
@@ -9917,14 +9909,12 @@
         <v>101</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -9949,13 +9939,13 @@
         <v>76</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>76</v>
+        <v>396</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>76</v>
@@ -9973,7 +9963,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9988,13 +9978,13 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>76</v>
@@ -10002,10 +9992,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10016,7 +10006,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -10031,10 +10021,10 @@
         <v>101</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10064,10 +10054,10 @@
         <v>150</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>76</v>
@@ -10085,7 +10075,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10100,13 +10090,13 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>402</v>
+        <v>76</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>76</v>
@@ -10114,10 +10104,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10128,7 +10118,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -10140,16 +10130,18 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>76</v>
       </c>
@@ -10173,13 +10165,13 @@
         <v>76</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>406</v>
+        <v>76</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>76</v>
@@ -10197,13 +10189,13 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
@@ -10212,13 +10204,13 @@
         <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>76</v>
@@ -10226,10 +10218,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10240,7 +10232,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -10249,20 +10241,22 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>272</v>
+        <v>417</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O70" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -10311,28 +10305,28 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>422</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>278</v>
+        <v>425</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>76</v>
@@ -10340,10 +10334,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10354,7 +10348,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -10366,20 +10360,16 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>419</v>
+        <v>101</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>420</v>
+        <v>102</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>76</v>
       </c>
@@ -10427,28 +10417,28 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>418</v>
+        <v>104</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>424</v>
+        <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>426</v>
+        <v>105</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>427</v>
+        <v>76</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>76</v>
@@ -10456,21 +10446,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -10482,15 +10472,17 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -10527,31 +10519,31 @@
         <v>76</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>76</v>
@@ -10568,21 +10560,23 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C73" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="B73" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -10594,17 +10588,15 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>108</v>
+        <v>430</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>109</v>
+        <v>431</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -10641,16 +10633,16 @@
         <v>76</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>115</v>
@@ -10671,7 +10663,7 @@
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10682,20 +10674,18 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>87</v>
@@ -10707,16 +10697,16 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>432</v>
+        <v>168</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10728,7 +10718,7 @@
         <v>76</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>76</v>
+        <v>436</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>76</v>
@@ -10743,13 +10733,13 @@
         <v>76</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>76</v>
+        <v>437</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>76</v>
@@ -10767,28 +10757,28 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>115</v>
+        <v>439</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>76</v>
+        <v>440</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>76</v>
+        <v>441</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>76</v>
@@ -10796,10 +10786,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10822,16 +10812,20 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10840,7 +10834,7 @@
         <v>76</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>438</v>
+        <v>76</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>76</v>
@@ -10855,13 +10849,13 @@
         <v>76</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>439</v>
+        <v>76</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>440</v>
+        <v>76</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>76</v>
@@ -10879,7 +10873,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10888,19 +10882,19 @@
         <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>445</v>
+        <v>269</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>76</v>
@@ -10908,10 +10902,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10919,7 +10913,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>87</v>
@@ -10928,25 +10922,25 @@
         <v>76</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10971,13 +10965,13 @@
         <v>76</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>76</v>
@@ -10995,7 +10989,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11010,13 +11004,13 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>453</v>
+        <v>364</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>269</v>
+        <v>461</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>76</v>
@@ -11024,10 +11018,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11044,26 +11038,24 @@
         <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>168</v>
+        <v>463</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>76</v>
       </c>
@@ -11087,13 +11079,13 @@
         <v>76</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>459</v>
+        <v>76</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>460</v>
+        <v>76</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>76</v>
@@ -11111,7 +11103,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11126,13 +11118,13 @@
         <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>462</v>
+        <v>105</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>366</v>
+        <v>105</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>463</v>
+        <v>76</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>76</v>
@@ -11140,10 +11132,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11166,17 +11158,15 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>465</v>
+        <v>272</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -11225,7 +11215,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11240,13 +11230,13 @@
         <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>105</v>
+        <v>415</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>76</v>
@@ -11254,10 +11244,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11268,7 +11258,7 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -11277,19 +11267,23 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>272</v>
+        <v>473</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>76</v>
       </c>
@@ -11337,28 +11331,28 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>191</v>
+        <v>478</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>278</v>
+        <v>480</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>76</v>
@@ -11366,10 +11360,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11380,7 +11374,7 @@
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -11389,22 +11383,20 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>475</v>
+        <v>168</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>76</v>
@@ -11429,13 +11421,13 @@
         <v>76</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>76</v>
+        <v>486</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>76</v>
@@ -11453,28 +11445,28 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>76</v>
@@ -11482,10 +11474,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11508,17 +11500,17 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>168</v>
+        <v>491</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>76</v>
@@ -11543,13 +11535,13 @@
         <v>76</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>487</v>
+        <v>76</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>488</v>
+        <v>76</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>76</v>
@@ -11567,7 +11559,7 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11582,13 +11574,13 @@
         <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>76</v>
@@ -11596,10 +11588,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11610,7 +11602,7 @@
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>76</v>
@@ -11619,20 +11611,20 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
@@ -11681,13 +11673,13 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>76</v>
@@ -11696,13 +11688,13 @@
         <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>497</v>
+        <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>76</v>
@@ -11710,10 +11702,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11736,18 +11728,16 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>504</v>
-      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>76</v>
       </c>
@@ -11783,19 +11773,17 @@
         <v>76</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="AC83" s="2"/>
       <c r="AD83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11810,13 +11798,13 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>76</v>
+        <v>510</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>76</v>
@@ -11824,10 +11812,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11838,7 +11826,7 @@
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>76</v>
@@ -11850,13 +11838,13 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>508</v>
+        <v>101</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>509</v>
+        <v>102</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>510</v>
+        <v>103</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11895,38 +11883,40 @@
         <v>76</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AC84" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>507</v>
+        <v>104</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>512</v>
+        <v>76</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>513</v>
+        <v>105</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>514</v>
+        <v>76</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>76</v>
@@ -11934,21 +11924,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>76</v>
@@ -11960,15 +11950,17 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>76</v>
@@ -12017,19 +12009,19 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>76</v>
@@ -12046,14 +12038,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>107</v>
+        <v>516</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12066,24 +12058,26 @@
         <v>76</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>109</v>
+        <v>517</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>110</v>
+        <v>518</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="O86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>76</v>
       </c>
@@ -12131,7 +12125,7 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>115</v>
+        <v>519</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12149,7 +12143,7 @@
         <v>76</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>76</v>
@@ -12160,14 +12154,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>518</v>
+        <v>76</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12180,25 +12174,23 @@
         <v>76</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>205</v>
+        <v>523</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>76</v>
@@ -12247,7 +12239,7 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12259,13 +12251,13 @@
         <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>191</v>
+        <v>524</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>76</v>
@@ -12276,10 +12268,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12287,10 +12279,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>76</v>
@@ -12302,18 +12294,16 @@
         <v>76</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>525</v>
-      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>76</v>
       </c>
@@ -12337,13 +12327,13 @@
         <v>76</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>76</v>
+        <v>528</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>76</v>
+        <v>529</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>76</v>
@@ -12361,13 +12351,13 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>76</v>
@@ -12379,10 +12369,10 @@
         <v>76</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>76</v>
+        <v>530</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>76</v>
@@ -12390,10 +12380,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12401,7 +12391,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>87</v>
@@ -12416,16 +12406,18 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>76</v>
       </c>
@@ -12449,34 +12441,34 @@
         <v>76</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>530</v>
+        <v>76</v>
       </c>
       <c r="Z89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF89" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="AA89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="AG89" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>87</v>
@@ -12491,10 +12483,10 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>76</v>
@@ -12502,10 +12494,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12528,18 +12520,16 @@
         <v>76</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>536</v>
-      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>76</v>
       </c>
@@ -12587,7 +12577,7 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12605,10 +12595,10 @@
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>538</v>
+        <v>76</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>76</v>
@@ -12616,12 +12606,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="D91" t="s" s="2">
         <v>76</v>
       </c>
@@ -12630,7 +12622,7 @@
         <v>77</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>76</v>
@@ -12642,13 +12634,13 @@
         <v>76</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>281</v>
+        <v>506</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12699,13 +12691,13 @@
         <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>76</v>
@@ -12714,13 +12706,13 @@
         <v>99</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>76</v>
+        <v>510</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>76</v>
+        <v>512</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>76</v>
@@ -12728,14 +12720,12 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
         <v>76</v>
       </c>
@@ -12744,7 +12734,7 @@
         <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>76</v>
@@ -12756,13 +12746,13 @@
         <v>76</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>508</v>
+        <v>101</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>545</v>
+        <v>102</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>510</v>
+        <v>103</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12813,28 +12803,28 @@
         <v>76</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>507</v>
+        <v>104</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>512</v>
+        <v>76</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>513</v>
+        <v>105</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>514</v>
+        <v>76</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>76</v>
@@ -12842,21 +12832,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>76</v>
@@ -12868,15 +12858,17 @@
         <v>76</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>76</v>
@@ -12925,19 +12917,19 @@
         <v>76</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>76</v>
@@ -12954,14 +12946,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>107</v>
+        <v>516</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12974,24 +12966,26 @@
         <v>76</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>109</v>
+        <v>517</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>110</v>
+        <v>518</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="O94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>76</v>
       </c>
@@ -13039,7 +13033,7 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>115</v>
+        <v>519</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -13057,7 +13051,7 @@
         <v>76</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>76</v>
@@ -13068,14 +13062,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>518</v>
+        <v>76</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13088,25 +13082,23 @@
         <v>76</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>205</v>
+        <v>523</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>76</v>
@@ -13155,7 +13147,7 @@
         <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13167,13 +13159,13 @@
         <v>76</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>191</v>
+        <v>524</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>76</v>
@@ -13184,10 +13176,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13195,10 +13187,10 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>76</v>
@@ -13210,18 +13202,16 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>525</v>
-      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>76</v>
       </c>
@@ -13245,13 +13235,13 @@
         <v>76</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>76</v>
+        <v>528</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>76</v>
+        <v>529</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>76</v>
@@ -13269,13 +13259,13 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>76</v>
@@ -13287,10 +13277,10 @@
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>76</v>
+        <v>530</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>76</v>
@@ -13298,10 +13288,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B97" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13309,7 +13299,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>87</v>
@@ -13324,13 +13314,13 @@
         <v>76</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>528</v>
+        <v>102</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>529</v>
+        <v>103</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13357,13 +13347,13 @@
         <v>76</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>530</v>
+        <v>76</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>531</v>
+        <v>76</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>76</v>
@@ -13381,10 +13371,10 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>527</v>
+        <v>104</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>87</v>
@@ -13393,16 +13383,16 @@
         <v>76</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>513</v>
+        <v>105</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>532</v>
+        <v>76</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>76</v>
@@ -13417,14 +13407,14 @@
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>76</v>
@@ -13436,15 +13426,17 @@
         <v>76</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>76</v>
@@ -13481,31 +13473,31 @@
         <v>76</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>76</v>
@@ -13529,7 +13521,7 @@
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13545,21 +13537,23 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>109</v>
+        <v>555</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>110</v>
+        <v>556</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>76</v>
       </c>
@@ -13595,19 +13589,17 @@
         <v>76</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AC99" s="2"/>
       <c r="AD99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>114</v>
+        <v>559</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>115</v>
+        <v>560</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -13619,13 +13611,13 @@
         <v>76</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>76</v>
+        <v>561</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>105</v>
+        <v>562</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>76</v>
@@ -13636,12 +13628,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="D100" t="s" s="2">
         <v>76</v>
       </c>
@@ -13650,7 +13644,7 @@
         <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>76</v>
@@ -13665,16 +13659,16 @@
         <v>146</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N100" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>76</v>
@@ -13699,29 +13693,29 @@
         <v>76</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Y100" s="2"/>
       <c r="Z100" t="s" s="2">
-        <v>76</v>
+        <v>565</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC100" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>561</v>
+        <v>76</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -13736,10 +13730,10 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>76</v>
@@ -13750,13 +13744,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>76</v>
@@ -13781,16 +13775,16 @@
         <v>146</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N101" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>76</v>
@@ -13837,7 +13831,7 @@
         <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -13852,10 +13846,10 @@
         <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>76</v>
@@ -13869,11 +13863,9 @@
         <v>568</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
         <v>76</v>
       </c>
@@ -13894,19 +13886,19 @@
         <v>88</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>76</v>
@@ -13931,11 +13923,13 @@
         <v>76</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y102" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z102" t="s" s="2">
-        <v>569</v>
+        <v>76</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>76</v>
@@ -13953,13 +13947,13 @@
         <v>76</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>76</v>
@@ -13968,10 +13962,10 @@
         <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>76</v>
@@ -13982,10 +13976,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14005,22 +13999,20 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>76</v>
@@ -14069,7 +14061,7 @@
         <v>76</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>576</v>
+        <v>531</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -14084,13 +14076,13 @@
         <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>577</v>
+        <v>76</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>76</v>
+        <v>536</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>76</v>
@@ -14098,10 +14090,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14124,18 +14116,16 @@
         <v>76</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>536</v>
-      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>76</v>
       </c>
@@ -14183,7 +14173,7 @@
         <v>76</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -14201,10 +14191,10 @@
         <v>76</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>538</v>
+        <v>76</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>76</v>
@@ -14212,12 +14202,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C105" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="B105" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
         <v>76</v>
       </c>
@@ -14238,13 +14230,13 @@
         <v>76</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>281</v>
+        <v>506</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>540</v>
+        <v>581</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14295,13 +14287,13 @@
         <v>76</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>76</v>
@@ -14310,13 +14302,13 @@
         <v>99</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>76</v>
+        <v>510</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>76</v>
+        <v>512</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>76</v>
@@ -14324,14 +14316,12 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
         <v>76</v>
       </c>
@@ -14352,13 +14342,13 @@
         <v>76</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>508</v>
+        <v>101</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>583</v>
+        <v>102</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>510</v>
+        <v>103</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14409,28 +14399,28 @@
         <v>76</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>507</v>
+        <v>104</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>512</v>
+        <v>76</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>513</v>
+        <v>105</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>514</v>
+        <v>76</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>76</v>
@@ -14438,21 +14428,21 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>76</v>
@@ -14464,15 +14454,17 @@
         <v>76</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>76</v>
@@ -14521,19 +14513,19 @@
         <v>76</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>76</v>
@@ -14550,14 +14542,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>107</v>
+        <v>516</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14570,24 +14562,26 @@
         <v>76</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>109</v>
+        <v>517</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>110</v>
+        <v>518</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="O108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>76</v>
       </c>
@@ -14635,7 +14629,7 @@
         <v>76</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>115</v>
+        <v>519</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -14653,7 +14647,7 @@
         <v>76</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14664,14 +14658,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>518</v>
+        <v>76</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14684,25 +14678,23 @@
         <v>76</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>205</v>
+        <v>523</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>76</v>
@@ -14751,7 +14743,7 @@
         <v>76</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -14763,13 +14755,13 @@
         <v>76</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>191</v>
+        <v>524</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>76</v>
@@ -14780,10 +14772,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14791,10 +14783,10 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>76</v>
@@ -14806,18 +14798,16 @@
         <v>76</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>525</v>
-      </c>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>76</v>
       </c>
@@ -14841,13 +14831,13 @@
         <v>76</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>76</v>
+        <v>528</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>76</v>
+        <v>529</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>76</v>
@@ -14865,13 +14855,13 @@
         <v>76</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>76</v>
@@ -14883,10 +14873,10 @@
         <v>76</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>76</v>
+        <v>530</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>76</v>
@@ -14894,10 +14884,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14905,7 +14895,7 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>87</v>
@@ -14920,13 +14910,13 @@
         <v>76</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>528</v>
+        <v>102</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>529</v>
+        <v>103</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -14953,13 +14943,13 @@
         <v>76</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>530</v>
+        <v>76</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>531</v>
+        <v>76</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>76</v>
@@ -14977,10 +14967,10 @@
         <v>76</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>527</v>
+        <v>104</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>87</v>
@@ -14989,16 +14979,16 @@
         <v>76</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>513</v>
+        <v>105</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>532</v>
+        <v>76</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>76</v>
@@ -15006,21 +14996,21 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>552</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>76</v>
@@ -15032,15 +15022,17 @@
         <v>76</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>76</v>
@@ -15077,31 +15069,31 @@
         <v>76</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>76</v>
@@ -15118,14 +15110,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>554</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15141,21 +15133,23 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>109</v>
+        <v>555</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>110</v>
+        <v>556</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O113" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>76</v>
       </c>
@@ -15191,19 +15185,17 @@
         <v>76</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AC113" s="2"/>
       <c r="AD113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>114</v>
+        <v>559</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>115</v>
+        <v>560</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -15215,13 +15207,13 @@
         <v>76</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>76</v>
+        <v>561</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>105</v>
+        <v>562</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
@@ -15232,12 +15224,14 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C114" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="B114" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
         <v>76</v>
       </c>
@@ -15246,7 +15240,7 @@
         <v>77</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>76</v>
@@ -15261,16 +15255,16 @@
         <v>146</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>76</v>
@@ -15295,29 +15289,29 @@
         <v>76</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Y114" s="2"/>
       <c r="Z114" t="s" s="2">
-        <v>76</v>
+        <v>593</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC114" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>561</v>
+        <v>76</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
@@ -15332,10 +15326,10 @@
         <v>99</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15346,13 +15340,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>76</v>
@@ -15377,16 +15371,16 @@
         <v>146</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M115" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O115" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>76</v>
@@ -15415,7 +15409,7 @@
       </c>
       <c r="Y115" s="2"/>
       <c r="Z115" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>76</v>
@@ -15433,7 +15427,7 @@
         <v>76</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
@@ -15448,10 +15442,10 @@
         <v>99</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
@@ -15462,14 +15456,12 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C116" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
         <v>76</v>
       </c>
@@ -15490,19 +15482,19 @@
         <v>88</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>76</v>
@@ -15527,11 +15519,13 @@
         <v>76</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y116" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z116" t="s" s="2">
-        <v>599</v>
+        <v>76</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>76</v>
@@ -15549,13 +15543,13 @@
         <v>76</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>76</v>
@@ -15564,10 +15558,10 @@
         <v>99</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>76</v>
@@ -15578,10 +15572,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15601,22 +15595,20 @@
         <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>76</v>
@@ -15665,7 +15657,7 @@
         <v>76</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>576</v>
+        <v>531</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>77</v>
@@ -15680,13 +15672,13 @@
         <v>99</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>577</v>
+        <v>76</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>76</v>
+        <v>536</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>76</v>
@@ -15694,10 +15686,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15720,18 +15712,16 @@
         <v>76</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="N118" s="2"/>
-      <c r="O118" t="s" s="2">
-        <v>536</v>
-      </c>
+      <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>76</v>
       </c>
@@ -15779,7 +15769,7 @@
         <v>76</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>77</v>
@@ -15797,10 +15787,10 @@
         <v>76</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>538</v>
+        <v>76</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>76</v>
@@ -15808,12 +15798,14 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C119" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="B119" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
         <v>76</v>
       </c>
@@ -15822,7 +15814,7 @@
         <v>77</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>76</v>
@@ -15834,13 +15826,13 @@
         <v>76</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>281</v>
+        <v>506</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15891,13 +15883,13 @@
         <v>76</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>76</v>
@@ -15906,13 +15898,13 @@
         <v>99</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>76</v>
+        <v>510</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>76</v>
+        <v>512</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>76</v>
@@ -15920,14 +15912,12 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C120" t="s" s="2">
-        <v>604</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
         <v>76</v>
       </c>
@@ -15936,7 +15926,7 @@
         <v>77</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>76</v>
@@ -15948,13 +15938,13 @@
         <v>76</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>508</v>
+        <v>101</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>605</v>
+        <v>102</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>510</v>
+        <v>103</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16005,28 +15995,28 @@
         <v>76</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>507</v>
+        <v>104</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>512</v>
+        <v>76</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>513</v>
+        <v>105</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>514</v>
+        <v>76</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>76</v>
@@ -16034,21 +16024,21 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>76</v>
@@ -16060,15 +16050,17 @@
         <v>76</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N121" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>76</v>
@@ -16117,19 +16109,19 @@
         <v>76</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>76</v>
@@ -16146,14 +16138,14 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>107</v>
+        <v>516</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -16166,24 +16158,26 @@
         <v>76</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>109</v>
+        <v>517</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>110</v>
+        <v>518</v>
       </c>
       <c r="N122" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="O122" s="2"/>
+      <c r="O122" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P122" t="s" s="2">
         <v>76</v>
       </c>
@@ -16231,7 +16225,7 @@
         <v>76</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>115</v>
+        <v>519</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>77</v>
@@ -16249,7 +16243,7 @@
         <v>76</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
@@ -16260,14 +16254,14 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>518</v>
+        <v>76</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -16280,25 +16274,23 @@
         <v>76</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>205</v>
+        <v>523</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>76</v>
@@ -16347,7 +16339,7 @@
         <v>76</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -16359,13 +16351,13 @@
         <v>76</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>191</v>
+        <v>524</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
@@ -16376,10 +16368,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16387,10 +16379,10 @@
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>76</v>
@@ -16402,18 +16394,16 @@
         <v>76</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="N124" s="2"/>
-      <c r="O124" t="s" s="2">
-        <v>525</v>
-      </c>
+      <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16437,13 +16427,13 @@
         <v>76</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>76</v>
+        <v>528</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>76</v>
+        <v>529</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>76</v>
@@ -16461,13 +16451,13 @@
         <v>76</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>76</v>
@@ -16479,10 +16469,10 @@
         <v>76</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>76</v>
+        <v>530</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>76</v>
@@ -16490,10 +16480,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16501,7 +16491,7 @@
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>87</v>
@@ -16516,13 +16506,13 @@
         <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>528</v>
+        <v>102</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>529</v>
+        <v>103</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -16549,13 +16539,13 @@
         <v>76</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>530</v>
+        <v>76</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>531</v>
+        <v>76</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>76</v>
@@ -16573,10 +16563,10 @@
         <v>76</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>527</v>
+        <v>104</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>87</v>
@@ -16585,16 +16575,16 @@
         <v>76</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>513</v>
+        <v>105</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>532</v>
+        <v>76</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>76</v>
@@ -16602,21 +16592,21 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>552</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>76</v>
@@ -16628,15 +16618,17 @@
         <v>76</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N126" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>76</v>
@@ -16673,31 +16665,31 @@
         <v>76</v>
       </c>
       <c r="AB126" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC126" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>76</v>
@@ -16714,14 +16706,14 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>554</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -16737,21 +16729,23 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>109</v>
+        <v>555</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>110</v>
+        <v>556</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O127" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="P127" t="s" s="2">
         <v>76</v>
       </c>
@@ -16787,19 +16781,17 @@
         <v>76</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AC127" s="2"/>
       <c r="AD127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>114</v>
+        <v>559</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>115</v>
+        <v>560</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>77</v>
@@ -16811,13 +16803,13 @@
         <v>76</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>76</v>
+        <v>561</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>105</v>
+        <v>562</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>76</v>
@@ -16828,12 +16820,14 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C128" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="B128" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
         <v>76</v>
       </c>
@@ -16842,7 +16836,7 @@
         <v>77</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>76</v>
@@ -16857,16 +16851,16 @@
         <v>146</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N128" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="O128" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>76</v>
@@ -16891,29 +16885,29 @@
         <v>76</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Y128" s="2"/>
       <c r="Z128" t="s" s="2">
-        <v>76</v>
+        <v>615</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC128" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>561</v>
+        <v>76</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -16928,10 +16922,10 @@
         <v>99</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>76</v>
@@ -16942,13 +16936,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>76</v>
@@ -16973,16 +16967,16 @@
         <v>146</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M129" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O129" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>76</v>
@@ -17011,7 +17005,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>76</v>
@@ -17029,7 +17023,7 @@
         <v>76</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
@@ -17044,10 +17038,10 @@
         <v>99</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>76</v>
@@ -17058,14 +17052,12 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C130" t="s" s="2">
-        <v>604</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
         <v>76</v>
       </c>
@@ -17086,19 +17078,19 @@
         <v>88</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>619</v>
+        <v>570</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>76</v>
@@ -17123,11 +17115,13 @@
         <v>76</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y130" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z130" t="s" s="2">
-        <v>620</v>
+        <v>76</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>76</v>
@@ -17145,13 +17139,13 @@
         <v>76</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>76</v>
@@ -17160,10 +17154,10 @@
         <v>99</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -17174,10 +17168,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17197,22 +17191,20 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>76</v>
@@ -17261,7 +17253,7 @@
         <v>76</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>576</v>
+        <v>531</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>77</v>
@@ -17276,13 +17268,13 @@
         <v>99</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>577</v>
+        <v>76</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>76</v>
+        <v>536</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>76</v>
@@ -17290,10 +17282,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17316,18 +17308,16 @@
         <v>76</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="N132" s="2"/>
-      <c r="O132" t="s" s="2">
-        <v>536</v>
-      </c>
+      <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
         <v>76</v>
       </c>
@@ -17375,7 +17365,7 @@
         <v>76</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>77</v>
@@ -17393,10 +17383,10 @@
         <v>76</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>538</v>
+        <v>76</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>76</v>
@@ -17404,10 +17394,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>539</v>
+        <v>622</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17418,7 +17408,7 @@
         <v>77</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>76</v>
@@ -17430,16 +17420,20 @@
         <v>76</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>540</v>
+        <v>623</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="P133" t="s" s="2">
         <v>76</v>
       </c>
@@ -17463,13 +17457,13 @@
         <v>76</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>76</v>
@@ -17487,13 +17481,13 @@
         <v>76</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>539</v>
+        <v>622</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>76</v>
@@ -17502,131 +17496,15 @@
         <v>99</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>76</v>
+        <v>627</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>542</v>
+        <v>628</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>76</v>
+        <v>629</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="P134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q134" s="2"/>
-      <c r="R134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AN134" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:52:18+00:00</t>
+    <t>2025-02-04T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:36:46+00:00</t>
+    <t>2025-02-04T10:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:20:10+00:00</t>
+    <t>2025-02-04T12:30:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:30:23+00:00</t>
+    <t>2025-02-04T12:59:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Practitioner, dérivé de FrPractitioner, pour la gestion des comptes régulateurs de la plateforme SAS - Commun cas d'usage PS Indiv et CPTS</t>
+    <t>Profil de Practitioner, dérivé de FrPractitioner, pour la gestion des comptes régulateurs de la plateforme SAS [Commun cas d'usage PS Indiv et CPTS]</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:59:01+00:00</t>
+    <t>2025-02-04T15:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T15:23:22+00:00</t>
+    <t>2025-02-04T16:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:00:41+00:00</t>
+    <t>2025-02-05T17:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T17:09:50+00:00</t>
+    <t>2025-02-06T08:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T08:29:34+00:00</t>
+    <t>2025-02-06T09:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:04:57+00:00</t>
+    <t>2025-02-06T09:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:17:57+00:00</t>
+    <t>2025-02-06T09:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:34:11+00:00</t>
+    <t>2025-02-06T09:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:41:46+00:00</t>
+    <t>2025-02-06T10:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:00:10+00:00</t>
+    <t>2025-02-06T13:19:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:19:14+00:00</t>
+    <t>2025-02-06T13:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:39:47+00:00</t>
+    <t>2025-02-06T14:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:18:01+00:00</t>
+    <t>2025-02-06T14:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:37:01+00:00</t>
+    <t>2025-02-10T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:11:56+00:00</t>
+    <t>2025-02-10T10:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T10:48:04+00:00</t>
+    <t>2025-03-12T10:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T10:37:36+00:00</t>
+    <t>2025-03-12T11:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:02:50+00:00</t>
+    <t>2025-03-13T08:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
